--- a/web/public/prompt.xlsx
+++ b/web/public/prompt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Experiment\Tools\prompt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SDPromptTool\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81698CE3-7665-4423-B467-247D6DAB45B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E291EC4-A79E-42B6-87C1-7E8C57FCAB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2140" windowWidth="32600" windowHeight="17520" tabRatio="648" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2140" windowWidth="32600" windowHeight="17520" tabRatio="648" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色-五官" sheetId="6" r:id="rId1"/>
@@ -10934,9 +10934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17863,9 +17863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA3A67-6201-4B1F-A242-3E03DCE6B14B}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/web/public/prompt.xlsx
+++ b/web/public/prompt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SDPromptTool\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E291EC4-A79E-42B6-87C1-7E8C57FCAB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5886BA53-82E2-4F51-AB2C-C96EA4ED6A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2140" windowWidth="32600" windowHeight="17520" tabRatio="648" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2140" windowWidth="32600" windowHeight="17520" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色-五官" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="2099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="2095">
   <si>
     <t>text</t>
   </si>
@@ -3515,10 +3515,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>高清</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>内容</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -6566,20 +6562,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>4k</t>
-  </si>
-  <si>
-    <t>8k</t>
-  </si>
-  <si>
-    <t>4k分辨率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8k分辨率</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>autumn</t>
   </si>
   <si>
@@ -7148,6 +7130,10 @@
   </si>
   <si>
     <t>rain pelted down the windows</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高清画质</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8115,8 +8101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A964B2-A319-451F-ADB7-BBBF3F4F4576}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -9295,7 +9281,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -9323,7 +9309,7 @@
         <v>670</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9430,7 +9416,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1006</v>
@@ -9779,10 +9765,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1005</v>
@@ -9790,10 +9776,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1005</v>
@@ -9856,10 +9842,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1005</v>
@@ -9889,10 +9875,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1005</v>
@@ -9944,10 +9930,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1005</v>
@@ -9977,10 +9963,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1005</v>
@@ -9999,10 +9985,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1922</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1923</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1005</v>
@@ -10010,10 +9996,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1005</v>
@@ -10043,10 +10029,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1005</v>
@@ -10054,10 +10040,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1005</v>
@@ -10098,10 +10084,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1163</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1005</v>
@@ -10109,10 +10095,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1005</v>
@@ -10164,10 +10150,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1005</v>
@@ -10285,10 +10271,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>1005</v>
@@ -10296,10 +10282,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1005</v>
@@ -10329,10 +10315,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1005</v>
@@ -10385,7 +10371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D55E4-4FFF-4503-AC48-78EF487CD642}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10463,7 +10449,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1007</v>
@@ -10474,7 +10460,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1007</v>
@@ -10526,10 +10512,10 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1172</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1007</v>
@@ -10592,10 +10578,10 @@
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1007</v>
@@ -10680,10 +10666,10 @@
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1007</v>
@@ -10691,10 +10677,10 @@
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1007</v>
@@ -10702,10 +10688,10 @@
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1007</v>
@@ -10724,10 +10710,10 @@
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1007</v>
@@ -10735,10 +10721,10 @@
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1206</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1007</v>
@@ -10746,10 +10732,10 @@
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1007</v>
@@ -10757,10 +10743,10 @@
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1007</v>
@@ -10768,10 +10754,10 @@
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1007</v>
@@ -10790,10 +10776,10 @@
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1007</v>
@@ -10815,7 +10801,7 @@
         <v>732</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1007</v>
@@ -10845,10 +10831,10 @@
     </row>
     <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1007</v>
@@ -10878,10 +10864,10 @@
     </row>
     <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1215</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1007</v>
@@ -10914,7 +10900,7 @@
         <v>743</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1007</v>
@@ -10932,11 +10918,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10952,18 +10938,18 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10974,95 +10960,95 @@
         <v>1127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1925</v>
+        <v>1130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1927</v>
+        <v>1131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1130</v>
+        <v>1882</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1131</v>
+        <v>1894</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1926</v>
+        <v>1877</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1928</v>
+        <v>2094</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1883</v>
+        <v>1223</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1895</v>
+        <v>1224</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1878</v>
+        <v>1918</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1132</v>
+        <v>1919</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1224</v>
+        <v>1878</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1919</v>
+        <v>1906</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1920</v>
+        <v>1907</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -11073,62 +11059,62 @@
         <v>1891</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1907</v>
+        <v>1880</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1226</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1226</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1881</v>
+        <v>1908</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1893</v>
+        <v>1909</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -11139,134 +11125,112 @@
         <v>1896</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1911</v>
+        <v>1885</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1912</v>
+        <v>1897</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1885</v>
+        <v>1912</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1897</v>
+        <v>1913</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1913</v>
+        <v>1886</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1914</v>
+        <v>1898</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1887</v>
+        <v>1916</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1899</v>
+        <v>1917</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1888</v>
+        <v>1951</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1900</v>
+        <v>1952</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1957</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
-    <sortCondition ref="C2:C28"/>
-    <sortCondition ref="A2:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition ref="C2:C26"/>
+    <sortCondition ref="A2:A26"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11704,10 +11668,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1842</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1843</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1010</v>
@@ -11729,7 +11693,7 @@
         <v>906</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1010</v>
@@ -11737,10 +11701,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1827</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1828</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1010</v>
@@ -11751,7 +11715,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1010</v>
@@ -11759,10 +11723,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1010</v>
@@ -11770,10 +11734,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1829</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1830</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1010</v>
@@ -11784,7 +11748,7 @@
         <v>907</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1010</v>
@@ -11792,10 +11756,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1010</v>
@@ -11806,7 +11770,7 @@
         <v>908</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1010</v>
@@ -11814,10 +11778,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1010</v>
@@ -11839,7 +11803,7 @@
         <v>911</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1010</v>
@@ -11847,10 +11811,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1840</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1841</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1010</v>
@@ -11905,7 +11869,7 @@
         <v>920</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1010</v>
@@ -11913,10 +11877,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1010</v>
@@ -11924,10 +11888,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1838</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1839</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1010</v>
@@ -11960,7 +11924,7 @@
         <v>925</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1010</v>
@@ -11968,10 +11932,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1831</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1832</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1010</v>
@@ -11979,10 +11943,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1845</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1846</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1010</v>
@@ -11990,10 +11954,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1825</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1826</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1010</v>
@@ -12004,7 +11968,7 @@
         <v>926</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1010</v>
@@ -12023,10 +11987,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1835</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1836</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1010</v>
@@ -12034,10 +11998,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1833</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1834</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1010</v>
@@ -12059,7 +12023,7 @@
         <v>931</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1010</v>
@@ -12092,7 +12056,7 @@
         <v>936</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1010</v>
@@ -12103,7 +12067,7 @@
         <v>899</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1011</v>
@@ -12114,7 +12078,7 @@
         <v>900</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1011</v>
@@ -12125,7 +12089,7 @@
         <v>901</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1011</v>
@@ -12136,7 +12100,7 @@
         <v>902</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1011</v>
@@ -12147,7 +12111,7 @@
         <v>903</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1011</v>
@@ -12356,7 +12320,7 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>74</v>
@@ -13850,931 +13814,931 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
@@ -14807,7 +14771,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -14815,43 +14779,43 @@
         <v>332</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -14862,7 +14826,7 @@
         <v>551</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -14873,7 +14837,7 @@
         <v>553</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -14884,7 +14848,7 @@
         <v>555</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -14895,7 +14859,7 @@
         <v>334</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -14906,7 +14870,7 @@
         <v>557</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -14917,18 +14881,18 @@
         <v>559</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -14936,21 +14900,21 @@
         <v>560</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -14961,7 +14925,7 @@
         <v>562</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -14969,10 +14933,10 @@
         <v>563</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -14983,7 +14947,7 @@
         <v>565</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -14994,7 +14958,7 @@
         <v>567</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -15002,10 +14966,10 @@
         <v>335</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -15013,10 +14977,10 @@
         <v>336</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -15027,7 +14991,7 @@
         <v>569</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -15035,10 +14999,10 @@
         <v>570</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -15049,7 +15013,7 @@
         <v>1102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -15060,7 +15024,7 @@
         <v>338</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -15068,10 +15032,10 @@
         <v>572</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -15079,10 +15043,10 @@
         <v>573</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -15090,10 +15054,10 @@
         <v>574</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -15101,32 +15065,32 @@
         <v>339</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -15134,10 +15098,10 @@
         <v>340</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -15148,7 +15112,7 @@
         <v>342</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -15156,32 +15120,32 @@
         <v>345</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -15189,10 +15153,10 @@
         <v>575</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -15203,7 +15167,7 @@
         <v>577</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -15214,7 +15178,7 @@
         <v>579</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -15222,10 +15186,10 @@
         <v>580</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -15233,10 +15197,10 @@
         <v>581</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -15247,51 +15211,51 @@
         <v>583</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -15299,10 +15263,10 @@
         <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -15310,10 +15274,10 @@
         <v>347</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -15324,7 +15288,7 @@
         <v>585</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -15335,7 +15299,7 @@
         <v>587</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -15346,18 +15310,18 @@
         <v>589</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>1210</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -15365,10 +15329,10 @@
         <v>590</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -15379,18 +15343,18 @@
         <v>592</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>1240</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -15401,18 +15365,18 @@
         <v>898</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -15423,7 +15387,7 @@
         <v>594</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -15434,29 +15398,29 @@
         <v>567</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -15467,18 +15431,18 @@
         <v>597</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>1213</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -15511,326 +15475,326 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1765</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1773</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1790</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1786</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1767</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1542</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1800</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1788</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1798</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -15841,238 +15805,238 @@
         <v>1117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>1782</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>1780</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>1794</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>1796</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>1792</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>1784</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>1759</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>1770</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>1775</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
   </sheetData>
@@ -16107,854 +16071,854 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -16987,865 +16951,865 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>1234</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>1505</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1109</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
   </sheetData>
@@ -17881,975 +17845,975 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2029</v>
+        <v>2024</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1904</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>1168</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>1906</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>1165</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
   </sheetData>
@@ -19091,7 +19055,7 @@
         <v>1055</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1008</v>
@@ -19176,10 +19140,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1008</v>
@@ -19487,7 +19451,7 @@
         <v>847</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1009</v>

--- a/web/public/prompt.xlsx
+++ b/web/public/prompt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SDPromptTool\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391E1FE-BB3A-4878-AA8F-A9A5571E0DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC352FA-E445-4105-8116-F4949AFB09C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="2140" windowWidth="32600" windowHeight="17520" tabRatio="648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="2081">
   <si>
     <t>text</t>
   </si>
@@ -7283,6 +7283,18 @@
   <si>
     <t>高潮</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>water colors</t>
+  </si>
+  <si>
+    <t>水彩</t>
+  </si>
+  <si>
+    <t>Chinese Landscape Art</t>
+  </si>
+  <si>
+    <t>中国山水艺术</t>
   </si>
 </sst>
 </file>
@@ -8250,8 +8262,8 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9265,7 +9277,7 @@
         <v>2001</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1875</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -18834,11 +18846,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20023,6 +20035,28 @@
         <v>884</v>
       </c>
     </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C107">
     <sortCondition ref="C2:C107"/>

--- a/web/public/prompt.xlsx
+++ b/web/public/prompt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SDPromptTool\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC352FA-E445-4105-8116-F4949AFB09C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBF577-F3BC-451E-B956-1EE9A6D5B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2140" windowWidth="32600" windowHeight="17520" tabRatio="648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2140" windowWidth="32600" windowHeight="17520" tabRatio="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色-五官" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="2081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="2087">
   <si>
     <t>text</t>
   </si>
@@ -7295,6 +7295,26 @@
   </si>
   <si>
     <t>中国山水艺术</t>
+  </si>
+  <si>
+    <t>hair flowing into ink</t>
+  </si>
+  <si>
+    <t>swirling ink</t>
+  </si>
+  <si>
+    <t>头发甩出墨水</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋墨水笔触</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ink splash</t>
+  </si>
+  <si>
+    <t>墨水飞溅</t>
   </si>
 </sst>
 </file>
@@ -8261,9 +8281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A964B2-A319-451F-ADB7-BBBF3F4F4576}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9364,15 +9384,16 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD98312-7BF6-4351-BD33-627363BBC710}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -9669,10 +9690,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>2085</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>458</v>
+        <v>2086</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>774</v>
@@ -9680,10 +9701,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>774</v>
@@ -9691,10 +9712,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>774</v>
@@ -9702,10 +9723,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>774</v>
@@ -9713,10 +9734,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>774</v>
@@ -9724,10 +9745,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>854</v>
+        <v>462</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>774</v>
@@ -9735,10 +9756,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>463</v>
+        <v>854</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>774</v>
@@ -9746,10 +9767,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>774</v>
@@ -9757,10 +9778,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>774</v>
@@ -9768,10 +9789,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>774</v>
@@ -9779,10 +9800,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>774</v>
@@ -9790,10 +9811,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>774</v>
@@ -9801,10 +9822,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>774</v>
@@ -9812,10 +9833,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>774</v>
@@ -9823,10 +9844,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>774</v>
@@ -9834,10 +9855,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>774</v>
@@ -9845,32 +9866,32 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>368</v>
+        <v>2082</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>369</v>
+        <v>2084</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>947</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>910</v>
+        <v>472</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>950</v>
+        <v>368</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>921</v>
+        <v>369</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>773</v>
@@ -9878,10 +9899,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>370</v>
+        <v>947</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>371</v>
+        <v>910</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>773</v>
@@ -9889,10 +9910,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>372</v>
+        <v>950</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>373</v>
+        <v>921</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>773</v>
@@ -9900,10 +9921,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>773</v>
@@ -9911,10 +9932,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>773</v>
@@ -9922,10 +9943,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>773</v>
@@ -9933,10 +9954,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>919</v>
+        <v>376</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>920</v>
+        <v>377</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>773</v>
@@ -9944,10 +9965,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>773</v>
@@ -9955,10 +9976,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>382</v>
+        <v>919</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>383</v>
+        <v>920</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>773</v>
@@ -9966,10 +9987,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>944</v>
+        <v>380</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>902</v>
+        <v>381</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>773</v>
@@ -9977,10 +9998,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>773</v>
@@ -9988,10 +10009,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>944</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>386</v>
+        <v>902</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>773</v>
@@ -9999,10 +10020,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>773</v>
@@ -10010,10 +10031,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>773</v>
@@ -10021,10 +10042,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>912</v>
+        <v>387</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>914</v>
+        <v>388</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>773</v>
@@ -10032,10 +10053,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>773</v>
@@ -10043,10 +10064,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>393</v>
+        <v>912</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>394</v>
+        <v>914</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>773</v>
@@ -10054,10 +10075,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>948</v>
+        <v>391</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>916</v>
+        <v>392</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>773</v>
@@ -10065,10 +10086,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>773</v>
@@ -10076,10 +10097,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>1664</v>
+        <v>948</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1665</v>
+        <v>916</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>773</v>
@@ -10087,10 +10108,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>943</v>
+        <v>395</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>901</v>
+        <v>396</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>773</v>
@@ -10098,10 +10119,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>397</v>
+        <v>1664</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>398</v>
+        <v>1665</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>773</v>
@@ -10109,10 +10130,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>399</v>
+        <v>943</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>400</v>
+        <v>901</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>773</v>
@@ -10120,10 +10141,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>945</v>
+        <v>397</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>903</v>
+        <v>398</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>773</v>
@@ -10131,10 +10152,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1663</v>
+        <v>399</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1666</v>
+        <v>400</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>773</v>
@@ -10142,10 +10163,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>401</v>
+        <v>945</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>402</v>
+        <v>903</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>773</v>
@@ -10153,10 +10174,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>403</v>
+        <v>1663</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>404</v>
+        <v>1666</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>773</v>
@@ -10164,10 +10185,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>773</v>
@@ -10175,10 +10196,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>923</v>
+        <v>403</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>924</v>
+        <v>404</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>773</v>
@@ -10186,10 +10207,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>949</v>
+        <v>405</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>918</v>
+        <v>406</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>773</v>
@@ -10197,10 +10218,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>407</v>
+        <v>923</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>408</v>
+        <v>924</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>773</v>
@@ -10208,10 +10229,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>409</v>
+        <v>949</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>410</v>
+        <v>918</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>773</v>
@@ -10219,10 +10240,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>847</v>
+        <v>408</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>773</v>
@@ -10230,10 +10251,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>864</v>
+        <v>410</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>773</v>
@@ -10241,10 +10262,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>915</v>
+        <v>411</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>922</v>
+        <v>847</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>773</v>
@@ -10252,10 +10273,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>414</v>
+        <v>864</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>773</v>
@@ -10263,10 +10284,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>415</v>
+        <v>915</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>416</v>
+        <v>922</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>773</v>
@@ -10274,10 +10295,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>773</v>
@@ -10285,10 +10306,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>846</v>
+        <v>416</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>773</v>
@@ -10296,10 +10317,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>773</v>
@@ -10307,10 +10328,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>773</v>
@@ -10318,10 +10339,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>773</v>
@@ -10329,10 +10350,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>863</v>
+        <v>423</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>773</v>
@@ -10340,10 +10361,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>773</v>
@@ -10351,10 +10372,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>430</v>
+        <v>863</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>773</v>
@@ -10362,10 +10383,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>946</v>
+        <v>427</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>906</v>
+        <v>428</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>773</v>
@@ -10373,10 +10394,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>911</v>
+        <v>429</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>913</v>
+        <v>430</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>773</v>
@@ -10384,10 +10405,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>431</v>
+        <v>946</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>432</v>
+        <v>906</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>773</v>
@@ -10395,10 +10416,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>433</v>
+        <v>911</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>434</v>
+        <v>913</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>773</v>
@@ -10406,10 +10427,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>904</v>
+        <v>431</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>905</v>
+        <v>432</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>773</v>
@@ -10417,10 +10438,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>773</v>
@@ -10428,10 +10449,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>437</v>
+        <v>904</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>438</v>
+        <v>905</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>773</v>
@@ -10439,19 +10460,41 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>848</v>
+        <v>436</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>773</v>
       </c>
     </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C97">
-    <sortCondition ref="C2:C97"/>
-    <sortCondition ref="A2:A97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C99">
+    <sortCondition ref="C2:C99"/>
+    <sortCondition ref="A2:A99"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10462,7 +10505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392D55E4-4FFF-4503-AC48-78EF487CD642}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12225,7 +12268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14736,7 +14779,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F758975C-AEA8-495D-B00A-81C27B7F49A9}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15424,6 +15467,17 @@
         <v>364</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>2069</v>
       </c>
     </row>
@@ -16918,9 +16972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E128D3-E52A-4615-AD61-DB81F4068868}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17846,7 +17898,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18848,9 +18900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18970,21 +19022,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>572</v>
+        <v>2079</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>573</v>
+        <v>2080</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>776</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>799</v>
+        <v>572</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>776</v>
@@ -18992,10 +19044,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>776</v>
@@ -19003,10 +19055,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>851</v>
+        <v>800</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>852</v>
+        <v>575</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>776</v>
@@ -19014,10 +19066,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>808</v>
+        <v>851</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>586</v>
+        <v>852</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>776</v>
@@ -19025,10 +19077,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>776</v>
@@ -19036,10 +19088,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>776</v>
@@ -19047,10 +19099,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>598</v>
+        <v>814</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>776</v>
@@ -19058,10 +19110,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>818</v>
+        <v>598</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>776</v>
@@ -19069,10 +19121,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>908</v>
+        <v>613</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>776</v>
@@ -19080,10 +19132,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>627</v>
+        <v>823</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>628</v>
+        <v>908</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>776</v>
@@ -19091,10 +19143,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>828</v>
+        <v>627</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>776</v>
@@ -19102,10 +19154,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>776</v>
@@ -19113,10 +19165,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>639</v>
+        <v>832</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>776</v>
@@ -19124,10 +19176,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>776</v>
@@ -19135,10 +19187,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>776</v>
@@ -19146,32 +19198,32 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>887</v>
+        <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>968</v>
+        <v>654</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>909</v>
+        <v>655</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>776</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>660</v>
+        <v>968</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>661</v>
+        <v>909</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>776</v>
@@ -19179,21 +19231,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>786</v>
+        <v>660</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>539</v>
+        <v>661</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>777</v>
@@ -19201,10 +19253,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>777</v>
@@ -19212,10 +19264,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>777</v>
@@ -19223,10 +19275,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>777</v>
@@ -19234,10 +19286,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>855</v>
+        <v>557</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>777</v>
@@ -19245,10 +19297,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>571</v>
+        <v>855</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>777</v>
@@ -19256,10 +19308,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>777</v>
@@ -19267,10 +19319,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>777</v>
@@ -19278,10 +19330,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>777</v>
@@ -19289,10 +19341,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>777</v>
@@ -19300,10 +19352,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>858</v>
+        <v>579</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>777</v>
@@ -19311,10 +19363,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>580</v>
+        <v>858</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>777</v>
@@ -19322,10 +19374,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>856</v>
+        <v>580</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>777</v>
@@ -19333,10 +19385,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>587</v>
+        <v>856</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>777</v>
@@ -19344,10 +19396,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>777</v>
@@ -19355,10 +19407,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>589</v>
+        <v>810</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>777</v>
@@ -19366,10 +19418,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>811</v>
+        <v>589</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>777</v>
@@ -19377,10 +19429,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>777</v>
@@ -19388,10 +19440,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>777</v>
@@ -19399,10 +19451,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>777</v>
@@ -19410,10 +19462,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>816</v>
+        <v>600</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>857</v>
+        <v>601</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>777</v>
@@ -19421,10 +19473,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>606</v>
+        <v>857</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>777</v>
@@ -19432,10 +19484,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>777</v>
@@ -19443,10 +19495,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>777</v>
@@ -19454,10 +19506,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>777</v>
@@ -19465,10 +19517,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>617</v>
+        <v>821</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>917</v>
+        <v>616</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>777</v>
@@ -19476,10 +19528,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>621</v>
+        <v>917</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>777</v>
@@ -19487,10 +19539,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>777</v>
@@ -19498,10 +19550,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>822</v>
+        <v>618</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>777</v>
@@ -19509,10 +19561,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>777</v>
@@ -19520,10 +19572,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>777</v>
@@ -19531,10 +19583,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>777</v>
@@ -19542,10 +19594,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>777</v>
@@ -19553,10 +19605,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>777</v>
@@ -19564,10 +19616,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>859</v>
+        <v>636</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>777</v>
@@ -19575,10 +19627,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>637</v>
+        <v>834</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>638</v>
+        <v>859</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>777</v>
@@ -19586,10 +19638,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>835</v>
+        <v>637</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>777</v>
@@ -19597,10 +19649,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>777</v>
@@ -19608,10 +19660,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>643</v>
+        <v>836</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>777</v>
@@ -19619,10 +19671,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>837</v>
+        <v>643</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>777</v>
@@ -19630,10 +19682,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>645</v>
+        <v>837</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>777</v>
@@ -19641,10 +19693,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>838</v>
+        <v>645</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>777</v>
@@ -19652,10 +19704,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>777</v>
@@ -19663,10 +19715,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>777</v>
@@ -19674,10 +19726,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>777</v>
@@ -19685,10 +19737,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>657</v>
+        <v>841</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>658</v>
+        <v>599</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>777</v>
@@ -19696,10 +19748,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>842</v>
+        <v>657</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>777</v>
@@ -19707,10 +19759,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>777</v>
@@ -19718,10 +19770,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>777</v>
@@ -19729,21 +19781,21 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>783</v>
+        <v>845</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>849</v>
+        <v>665</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>884</v>
+        <v>777</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>884</v>
@@ -19751,10 +19803,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>882</v>
+        <v>850</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>884</v>
@@ -19762,10 +19814,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>538</v>
+        <v>784</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>884</v>
@@ -19773,10 +19825,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>548</v>
+        <v>881</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>884</v>
@@ -19784,10 +19836,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>885</v>
+        <v>548</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>884</v>
@@ -19795,10 +19847,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>884</v>
@@ -19806,10 +19858,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>884</v>
@@ -19817,10 +19869,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>564</v>
+        <v>886</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>884</v>
@@ -19828,10 +19880,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>796</v>
+        <v>563</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>884</v>
@@ -19839,10 +19891,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>566</v>
+        <v>796</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>884</v>
@@ -19850,10 +19902,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>797</v>
+        <v>566</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>884</v>
@@ -19861,10 +19913,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>569</v>
+        <v>797</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>884</v>
@@ -19872,10 +19924,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>884</v>
@@ -19883,10 +19935,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>884</v>
@@ -19894,10 +19946,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>883</v>
+        <v>584</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>884</v>
@@ -19905,10 +19957,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>597</v>
+        <v>883</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>884</v>
@@ -19916,10 +19968,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>884</v>
@@ -19927,10 +19979,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>884</v>
@@ -19938,10 +19990,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>884</v>
@@ -19949,10 +20001,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>884</v>
@@ -19960,10 +20012,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>884</v>
@@ -19971,10 +20023,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>826</v>
+        <v>611</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>884</v>
@@ -19982,10 +20034,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>884</v>
@@ -19993,10 +20045,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>884</v>
@@ -20004,10 +20056,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>631</v>
+        <v>829</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>884</v>
@@ -20015,10 +20067,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>844</v>
+        <v>631</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>536</v>
+        <v>632</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>884</v>
@@ -20026,10 +20078,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>663</v>
+        <v>844</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>664</v>
+        <v>536</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>884</v>
@@ -20037,10 +20089,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>2077</v>
+        <v>663</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>2078</v>
+        <v>664</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>884</v>
@@ -20048,19 +20100,19 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C107">
-    <sortCondition ref="C2:C107"/>
-    <sortCondition ref="A2:A107"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C109">
+    <sortCondition ref="C2:C109"/>
+    <sortCondition ref="A2:A109"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
